--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,30 +46,30 @@
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -82,30 +82,24 @@
     <t>drop</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -115,6 +109,9 @@
     <t>co</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -133,139 +130,163 @@
     <t>free</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>super</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ready</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>security</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>increased</t>
   </si>
   <si>
-    <t>check</t>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>food</t>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -623,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,7 +734,7 @@
         <v>70</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -742,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7586206896551724</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -792,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7368421052631579</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -810,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -834,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,13 +863,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6764705882352942</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -860,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -884,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -892,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.64</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -913,16 +934,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -934,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -942,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6388888888888888</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -960,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -984,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -992,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6216216216216216</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1010,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.8207547169811321</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1034,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1042,13 +1063,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1060,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>316</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>316</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1084,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1092,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6052631578947368</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1110,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1134,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1142,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>0.8055555555555556</v>
@@ -1192,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4497354497354497</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C13">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D13">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.8048780487804879</v>
+        <v>0.796875</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1234,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.436046511627907</v>
+        <v>0.4612403100775194</v>
       </c>
       <c r="C14">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D14">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1260,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.7916666666666666</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1284,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1292,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.392156862745098</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1310,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1334,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1342,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3898305084745763</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1360,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.7746478873239436</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1384,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1392,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2953020134228188</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1410,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.7734375</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1434,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1442,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2678571428571428</v>
+        <v>0.3087248322147651</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1460,19 +1481,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.76875</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L18">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1484,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1492,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2549019607843137</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1510,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.746031746031746</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1534,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1542,13 +1563,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2533333333333334</v>
+        <v>0.1625</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1560,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.7441860465116279</v>
+        <v>0.725</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1592,49 +1613,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2363636363636364</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>76</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>13</v>
-      </c>
-      <c r="D21">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>42</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L21">
-        <v>22</v>
-      </c>
-      <c r="M21">
-        <v>22</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1642,13 +1663,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.175</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1660,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>66</v>
+        <v>215</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.6571428571428571</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1692,37 +1713,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1587301587301587</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>212</v>
+        <v>345</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.6428571428571429</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1734,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1742,7 +1763,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1444444444444444</v>
+        <v>0.04333333333333333</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -1760,19 +1781,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.6411764705882353</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L24">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1784,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>122</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1792,37 +1813,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.09139784946236559</v>
+        <v>0.02036857419980601</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="E25">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
       <c r="F25">
-        <v>0.97</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>338</v>
+        <v>3030</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.64</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1834,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1842,37 +1863,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.05333333333333334</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="C26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>284</v>
+        <v>1140</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.6382978723404256</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1884,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1892,49 +1913,49 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01391585760517799</v>
+        <v>0.01319509896324222</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E27">
-        <v>0.28</v>
+        <v>0.43</v>
       </c>
       <c r="F27">
-        <v>0.72</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3047</v>
+        <v>2094</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.6326530612244898</v>
+        <v>0.68</v>
       </c>
       <c r="L27">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1942,87 +1963,63 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01318267419962335</v>
+        <v>0.005703422053231939</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E28">
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="F28">
-        <v>0.6</v>
+        <v>0.29</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2096</v>
+        <v>3138</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L28">
+        <v>19</v>
+      </c>
+      <c r="M28">
+        <v>19</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K28">
-        <v>0.6</v>
-      </c>
-      <c r="L28">
-        <v>39</v>
-      </c>
-      <c r="M28">
-        <v>39</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.006355258976803305</v>
-      </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-      <c r="D29">
-        <v>74</v>
-      </c>
-      <c r="E29">
-        <v>0.73</v>
-      </c>
-      <c r="F29">
-        <v>0.27</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>3127</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K29">
-        <v>0.5983263598326359</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L29">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="M29">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2034,21 +2031,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.5957446808510638</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L30">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2060,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.5857142857142857</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2086,21 +2083,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.5617977528089888</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L32">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2112,21 +2109,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.5864406779661017</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2138,21 +2135,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2164,21 +2161,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.4313725490196079</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2190,21 +2187,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.425</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2216,99 +2213,99 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.4027777777777778</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.4</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N38">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.3939393939393939</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L39">
+        <v>15</v>
+      </c>
+      <c r="M39">
+        <v>15</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>13</v>
-      </c>
-      <c r="M39">
-        <v>13</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>20</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.3333333333333333</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2320,21 +2317,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.3050847457627119</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L41">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2346,21 +2343,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.2564102564102564</v>
+        <v>0.5</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2372,21 +2369,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K43">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2398,21 +2395,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.1944444444444444</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2424,47 +2421,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.1401869158878505</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="N45">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>92</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.05844155844155844</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2476,47 +2473,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>290</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.03864734299516908</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N47">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>398</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K48">
-        <v>0.03588516746411483</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2528,59 +2525,59 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>403</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>0.02224694104560623</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N49">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>879</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="K50">
-        <v>0.01697579377554228</v>
+        <v>0.28125</v>
       </c>
       <c r="L50">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="N50">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>3127</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2588,77 +2585,285 @@
         <v>83</v>
       </c>
       <c r="K51">
-        <v>0.01356993736951983</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N51">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>945</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="K52">
-        <v>0.008983451536643027</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="N52">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>2096</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K53">
+        <v>0.07027027027027027</v>
+      </c>
+      <c r="L53">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <v>13</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K54">
+        <v>0.05288461538461538</v>
+      </c>
+      <c r="L54">
+        <v>22</v>
+      </c>
+      <c r="M54">
+        <v>22</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K55">
+        <v>0.04248366013071896</v>
+      </c>
+      <c r="L55">
+        <v>13</v>
+      </c>
+      <c r="M55">
+        <v>15</v>
+      </c>
+      <c r="N55">
+        <v>0.87</v>
+      </c>
+      <c r="O55">
+        <v>0.13</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K56">
+        <v>0.02950310559006211</v>
+      </c>
+      <c r="L56">
+        <v>19</v>
+      </c>
+      <c r="M56">
+        <v>25</v>
+      </c>
+      <c r="N56">
+        <v>0.76</v>
+      </c>
+      <c r="O56">
+        <v>0.24</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K57">
+        <v>0.0289210233592881</v>
+      </c>
+      <c r="L57">
+        <v>26</v>
+      </c>
+      <c r="M57">
+        <v>28</v>
+      </c>
+      <c r="N57">
+        <v>0.93</v>
+      </c>
+      <c r="O57">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K58">
+        <v>0.01681614349775785</v>
+      </c>
+      <c r="L58">
+        <v>15</v>
+      </c>
+      <c r="M58">
+        <v>17</v>
+      </c>
+      <c r="N58">
+        <v>0.88</v>
+      </c>
+      <c r="O58">
+        <v>0.12</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59">
+        <v>0.01413760603204524</v>
+      </c>
+      <c r="L59">
+        <v>45</v>
+      </c>
+      <c r="M59">
+        <v>63</v>
+      </c>
+      <c r="N59">
+        <v>0.71</v>
+      </c>
+      <c r="O59">
+        <v>0.29</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K53">
-        <v>0.005548302872062663</v>
-      </c>
-      <c r="L53">
-        <v>17</v>
-      </c>
-      <c r="M53">
-        <v>60</v>
-      </c>
-      <c r="N53">
-        <v>0.28</v>
-      </c>
-      <c r="O53">
-        <v>0.72</v>
-      </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>3047</v>
+      <c r="K60">
+        <v>0.009929078014184398</v>
+      </c>
+      <c r="L60">
+        <v>21</v>
+      </c>
+      <c r="M60">
+        <v>49</v>
+      </c>
+      <c r="N60">
+        <v>0.43</v>
+      </c>
+      <c r="O60">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61">
+        <v>0.004599211563731932</v>
+      </c>
+      <c r="L61">
+        <v>14</v>
+      </c>
+      <c r="M61">
+        <v>77</v>
+      </c>
+      <c r="N61">
+        <v>0.18</v>
+      </c>
+      <c r="O61">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>3030</v>
       </c>
     </row>
   </sheetData>
